--- a/data/MOTU/lista_MOTU.xlsx
+++ b/data/MOTU/lista_MOTU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6a14629e1bd2b3dd/Documentos/Antigravity/el-oraculo-de-eternia/data/MOTU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_16DCE5F45C0EE905FBE1ECA05A800FE013191ACE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{590B4052-6E7E-43F1-9F02-C68AEBE1C7B7}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_16DCE5F45C0EE905FBE1ECA05A800FE013191ACE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D846758-7B69-4DC7-9C84-9B2EB9CFEEEA}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="19635" windowHeight="10440" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="19635" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Origins_Action_Figures_Checklis" sheetId="1" r:id="rId1"/>
@@ -5495,8 +5495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10517,11 +10517,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
